--- a/przypadki-testowe/przypadki-testowe.xlsx
+++ b/przypadki-testowe/przypadki-testowe.xlsx
@@ -52,36 +52,9 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">1. Otwieram stronę </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">https://automationexercise.com/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">2. Wybieram w menu „Contact us”
+    <t xml:space="preserve">1. Otwieram stronę https://automationexercise.com/
+2. Wybieram w menu „Contact us”
 3. Klikam w przycisk „Submit”</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Formularz nie zostanie wysłany, pokaże się komunikat „Wypełnij to pole.” przy polu „Email”</t>
@@ -96,74 +69,20 @@
     <t xml:space="preserve">Wysłanie formularza kontaktowego z prawidłowymi danymi</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">Name: Jan Kowalski
-Email: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">jan@kowalski.pl
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">Subject: Testowa wiadomość
+    <t xml:space="preserve">Name: Jan Kowalski
+Email: jan@kowalski.pl
+Subject: Testowa wiadomość
 Message: To jest testowa wiadomość</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">1. Otwieram stronę </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">https://automationexercise.com/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">2. Wybieram w menu „Contact us”
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwieram stronę https://automationexercise.com/
+2. Wybieram w menu „Contact us”
 3. W polu „Name” formularza wpisuję wartość wejściową
 4. W polu „Email” formularza wpisuję wartość wejściową
 5. W polu „Subject” formularza wpisuję wartość wejściową
 6. W polu „Message” formularza wpisuję wartość wejściową
 7. Klikam w przycisk „Submit”
 8. W okienku „Press OK to proceed!” kilkam przycisk OK</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Pojawia się komunikat: „Success! Your details have been submitted successfully.”</t>
@@ -175,72 +94,17 @@
     <t xml:space="preserve">Wysłanie formularza kontaktowego z pustą treścią wiadomości</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">Name: Jan Kowalski
-Email: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">jan@kowalski.pl
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">Subject: Testowa wiadomość</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">1. Otwieram stronę </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">https://automationexercise.com/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">2. Wybieram w menu „Contact us”
+    <t xml:space="preserve">Name: Jan Kowalski
+Email: jan@kowalski.pl
+Subject: Testowa wiadomość</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwieram stronę https://automationexercise.com/
+2. Wybieram w menu „Contact us”
 3. W polu „Name” formularza wpisuję wartość wejściową
 4. W polu „Email” formularza wpisuję wartość wejściową
 5. W polu „Subject” formularza wpisuję wartość wejściową
-6. Klikam w przycisk „Submit”
-7. W okienku „Press OK to proceed!” kilkam przycisk OK</t>
-    </r>
+6. Klikam w przycisk „Submit”</t>
   </si>
   <si>
     <t xml:space="preserve">Formularz nie zostanie wysłany, pokaże się komunikat „Wypełnij to pole.” przy polu „Message”</t>
@@ -255,88 +119,34 @@
     <t xml:space="preserve">Wysłanie formularza kontaktowego z długą nazwą</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">Name: xkpqoiroehafgoddvjguabadsdlbqlbkhskspxnlsozkvdahxthizxozcaaaphgauangegrxlvfwxsvlomwelkzuvfzbznxuoxljfrchfvyzeenlxlwfvrnnmcslvwifejgnwmybevtxxbjajsofmoxalscsiqhvpggynkafqxggfzjkjfmqvstkzzczcncldrxnczqkeusskvaakdzmtvaiclyrtnwpbqwukfxckwqdhcivatjkhhrjgpdidhh
-Email: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">jan@kowalski.pl
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">Subject: Testowa wiadomość
-Message: To jest testowa wiadomość</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Formularz nie zostanie wysłany, pokaże się komunikat „Pole Name jest za długie.” przy polu „Name”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wysłanie formularza kontaktowego z nieprawidłowym adresem email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name: Jan Kowalski
-Email: qwerty
+    <t xml:space="preserve">Name: xkpqoiroehafgoddvjguabadsdlbqlbkhskspxnlsozkvdahxthizxozcaaaphgauangegrxlvfwxsvlomwelkzuvfzbznxuoxljfrchfvyzeenlxlwfvrnnmcslvwifejgnwmybevtxxbjajsofmoxalscsiqhvpggynkafqxggfzjkjfmqvstkzzczcncldrxnczqkeusskvaakdzmtvaiclyrtnwpbqwukfxckwqdhcivatjkhhrjgpdidhh
+Email: jan@kowalski.pl
 Subject: Testowa wiadomość
 Message: To jest testowa wiadomość</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">1. Otwieram stronę </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">https://automationexercise.com/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">2. Wybieram w menu „Contact us”
+    <t xml:space="preserve">1. Otwieram stronę https://automationexercise.com/
+2. Wybieram w menu „Contact us”
 3. W polu „Name” formularza wpisuję wartość wejściową
 4. W polu „Email” formularza wpisuję wartość wejściową
 5. W polu „Subject” formularza wpisuję wartość wejściową
 6. W polu „Message” formularza wpisuję wartość wejściową
 7. Klikam w przycisk „Submit”</t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Formularz nie zostanie wysłany, pokaże się komunikat „Pole Name jest za długie.” przy polu „Name”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wysłanie formularza kontaktowego z nieprawidłowym adresem email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: Jan Kowalski
+Email: qwerty
+Subject: Testowa wiadomość
+Message: To jest testowa wiadomość</t>
   </si>
   <si>
     <t xml:space="preserve">Formularz nie zostanie wysłany, pokaże się komunikat „Uwzględnij znak „@” w adresie e-mail. W adresie „qwerty” brakuje znaku „@”.” przy polu „Email”</t>
@@ -348,37 +158,10 @@
     <t xml:space="preserve">Dodanie produktu do koszyka</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">1. Otwieram stronę </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">https://automationexercise.com/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">2. Wybieram w menu „Products”
+    <t xml:space="preserve">1. Otwieram stronę https://automationexercise.com/
+2. Wybieram w menu „Products”
 3. W pierwszym produkcie klikam w przycisk „Add to cart”
 4. W okienku, które się otworzy wybieram link „View cart”</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Otwiera się koszyk z widocznym, dodanym produktem</t>
@@ -393,36 +176,9 @@
     <t xml:space="preserve">Dodany do koszyka produkt</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">1. Otwieram stronę </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">https://automationexercise.com/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">2. Wybieram w menu „Cart”
+    <t xml:space="preserve">1. Otwieram stronę https://automationexercise.com/
+2. Wybieram w menu „Cart”
 3. Klikam w przycisk „X” dla produktu w koszyku</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Pojawia się komunikat: „Cart is empty! Click here to buy products.”</t>
@@ -437,38 +193,11 @@
     <t xml:space="preserve">Quantity: 0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">1. Otwieram stronę </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">https://automationexercise.com/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">2. Wybieram w menu „Products”
+    <t xml:space="preserve">1. Otwieram stronę https://automationexercise.com/
+2. Wybieram w menu „Products”
 3. W pierwszym produkcie klikam w link „View Product”
 4. W polu „Quantity” wpisuję wartość wejściową
 5. Klikam w przycisk „Add to cart”</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Pojawia się komunikat „Ilość produktu powinna być większa od 0.” przy polu „Quantity”</t>
@@ -489,72 +218,18 @@
     <t xml:space="preserve">Dodanie komentarza do produktu z prawidłowymi danymi</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">Your Name: Jan
-Email Address: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">jan@wp.pl
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">Add Review Here!: dobra jakość</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">1. Otwieram stronę </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">https://automationexercise.com/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">2. Wybieram w menu „Products”
+    <t xml:space="preserve">Your Name: Jan
+Email Address: jan@wp.pl
+Add Review Here!: dobra jakość</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwieram stronę https://automationexercise.com/
+2. Wybieram w menu „Products”
 3. W pierwszym produkcie klikam w link „View Product”
 4. W polu „Your Name” wpisuję wartość wejściową
 5. W polu „Email Address” wpisuję wartość wejściową
 6. W polu „Add Review Here!” wpisuję wartość wejściową
 7. Klikam w przycisk „Submit”</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Dodany komentarz pojawia się pod produktem</t>
@@ -567,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -595,13 +270,6 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -685,35 +353,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -903,7 +571,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -986,7 +654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1023,10 +691,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>23</v>
@@ -1034,19 +702,19 @@
     </row>
     <row r="6" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>32</v>
@@ -1171,22 +839,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://automationexercise.com/"/>
-    <hyperlink ref="C3" r:id="rId2" display="jan@kowalski.pl"/>
-    <hyperlink ref="E3" r:id="rId3" display="https://automationexercise.com/"/>
-    <hyperlink ref="C4" r:id="rId4" display="jan@kowalski.pl"/>
-    <hyperlink ref="E4" r:id="rId5" display="https://automationexercise.com/"/>
-    <hyperlink ref="C5" r:id="rId6" display="jan@kowalski.pl"/>
-    <hyperlink ref="E5" r:id="rId7" display="https://automationexercise.com/"/>
-    <hyperlink ref="E6" r:id="rId8" display="https://automationexercise.com/"/>
-    <hyperlink ref="E7" r:id="rId9" display="https://automationexercise.com/"/>
-    <hyperlink ref="E8" r:id="rId10" display="https://automationexercise.com/"/>
-    <hyperlink ref="E9" r:id="rId11" display="https://automationexercise.com/"/>
-    <hyperlink ref="E10" r:id="rId12" display="https://automationexercise.com/"/>
-    <hyperlink ref="C11" r:id="rId13" display="jan@wp.pl"/>
-    <hyperlink ref="E11" r:id="rId14" display="https://automationexercise.com/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
